--- a/Mifos Automation Excels/Client/2413-MS-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-BLR-OnTime-CASH-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/2413-MS-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-BLR-OnTime-CASH-Newcreateloan2.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
     <sheet name="Summary" sheetId="3" r:id="rId2"/>
     <sheet name="Repayment schedule" sheetId="1" r:id="rId3"/>
     <sheet name="Transactions" sheetId="4" r:id="rId4"/>
-    <sheet name="Floating Interest Rates" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -117,12 +116,6 @@
   </si>
   <si>
     <t>disburseloan</t>
-  </si>
-  <si>
-    <t>From Date</t>
-  </si>
-  <si>
-    <t>Interest Rate</t>
   </si>
   <si>
     <t>Repayment</t>
@@ -132,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,14 +145,6 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -261,10 +246,10 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -571,7 +556,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +581,7 @@
         <v>42064</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
@@ -606,15 +591,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,12 +609,12 @@
     <col min="2" max="2" width="9.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -648,29 +634,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>10000</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="12">
         <v>833.33</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="12">
         <v>9166.67</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="10">
         <v>833.33</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>299.10000000000002</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>412.65</v>
+      </c>
+      <c r="B3" s="12">
         <v>16.989999999999998</v>
       </c>
       <c r="C3" s="7">
@@ -679,14 +666,14 @@
       <c r="D3" s="7">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
-        <v>282.11</v>
-      </c>
-      <c r="F3" s="7">
-        <v>15.98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="12">
+        <v>395.66</v>
+      </c>
+      <c r="F3" s="12">
+        <v>19.170000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>0</v>
       </c>
@@ -706,7 +693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>0</v>
       </c>
@@ -735,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="A1:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,12 +734,12 @@
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
@@ -835,6 +822,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -847,16 +835,16 @@
         <v>42036</v>
       </c>
       <c r="D3" s="8">
-        <v>42036</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="7">
+        <v>42019</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12">
         <v>833.33</v>
       </c>
       <c r="G3" s="10">
-        <v>4166.67</v>
-      </c>
-      <c r="H3" s="7">
+        <v>4165.74</v>
+      </c>
+      <c r="H3" s="12">
         <v>16.989999999999998</v>
       </c>
       <c r="I3" s="7">
@@ -865,16 +853,19 @@
       <c r="J3" s="7">
         <v>0</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="12">
         <v>850.32</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="12">
         <v>850.32</v>
       </c>
-      <c r="M3" s="7">
-        <v>0</v>
+      <c r="M3" s="12">
+        <v>850.32</v>
       </c>
       <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
         <v>0</v>
       </c>
       <c r="P3" s="7">
@@ -898,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="7">
+      <c r="K4" s="12">
         <v>0</v>
       </c>
       <c r="L4" s="7">
@@ -906,6 +897,7 @@
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -920,14 +912,14 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="7">
+      <c r="F5" s="12">
         <v>833.33</v>
       </c>
       <c r="G5" s="10">
-        <v>8333.34</v>
-      </c>
-      <c r="H5" s="7">
-        <v>15.98</v>
+        <v>8327.27</v>
+      </c>
+      <c r="H5" s="12">
+        <v>19.170000000000002</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -935,8 +927,8 @@
       <c r="J5" s="7">
         <v>0</v>
       </c>
-      <c r="K5" s="7">
-        <v>849.31</v>
+      <c r="K5" s="12">
+        <v>852.51</v>
       </c>
       <c r="L5" s="7">
         <v>0</v>
@@ -947,8 +939,11 @@
       <c r="N5" s="7">
         <v>0</v>
       </c>
-      <c r="P5" s="7">
-        <v>849.31</v>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="12">
+        <v>852.51</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -963,14 +958,14 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7">
+      <c r="F6" s="12">
         <v>833.33</v>
       </c>
       <c r="G6" s="10">
-        <v>7500.01</v>
-      </c>
-      <c r="H6" s="7">
-        <v>46.71</v>
+        <v>7507.16</v>
+      </c>
+      <c r="H6" s="12">
+        <v>62.28</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -978,8 +973,8 @@
       <c r="J6" s="7">
         <v>0</v>
       </c>
-      <c r="K6" s="7">
-        <v>880.04</v>
+      <c r="K6" s="12">
+        <v>895.61</v>
       </c>
       <c r="L6" s="7">
         <v>0</v>
@@ -990,8 +985,11 @@
       <c r="N6" s="7">
         <v>0</v>
       </c>
-      <c r="P6" s="7">
-        <v>880.04</v>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="12">
+        <v>895.61</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1006,14 +1004,14 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7">
+      <c r="F7" s="12">
         <v>833.33</v>
       </c>
       <c r="G7" s="10">
-        <v>6666.68</v>
-      </c>
-      <c r="H7" s="7">
-        <v>43.15</v>
+        <v>6680.59</v>
+      </c>
+      <c r="H7" s="12">
+        <v>61.7</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1021,8 +1019,8 @@
       <c r="J7" s="7">
         <v>0</v>
       </c>
-      <c r="K7" s="7">
-        <v>876.48</v>
+      <c r="K7" s="12">
+        <v>895.04</v>
       </c>
       <c r="L7" s="7">
         <v>0</v>
@@ -1033,8 +1031,11 @@
       <c r="N7" s="7">
         <v>0</v>
       </c>
-      <c r="P7" s="7">
-        <v>876.48</v>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="12">
+        <v>895.04</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1049,14 +1050,14 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7">
+      <c r="F8" s="12">
         <v>833.33</v>
       </c>
       <c r="G8" s="10">
-        <v>5833.35</v>
-      </c>
-      <c r="H8" s="7">
-        <v>39.630000000000003</v>
+        <v>5852.04</v>
+      </c>
+      <c r="H8" s="12">
+        <v>56.74</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1064,8 +1065,8 @@
       <c r="J8" s="7">
         <v>0</v>
       </c>
-      <c r="K8" s="7">
-        <v>872.96</v>
+      <c r="K8" s="12">
+        <v>890.07</v>
       </c>
       <c r="L8" s="7">
         <v>0</v>
@@ -1076,8 +1077,11 @@
       <c r="N8" s="7">
         <v>0</v>
       </c>
-      <c r="P8" s="7">
-        <v>872.96</v>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12">
+        <v>890.07</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1092,14 +1096,14 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="7">
+      <c r="F9" s="12">
         <v>833.33</v>
       </c>
       <c r="G9" s="10">
-        <v>5000.0200000000004</v>
-      </c>
-      <c r="H9" s="7">
-        <v>33.56</v>
+        <v>5020.03</v>
+      </c>
+      <c r="H9" s="12">
+        <v>48.1</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -1107,8 +1111,8 @@
       <c r="J9" s="7">
         <v>0</v>
       </c>
-      <c r="K9" s="7">
-        <v>866.89</v>
+      <c r="K9" s="12">
+        <v>881.43</v>
       </c>
       <c r="L9" s="7">
         <v>0</v>
@@ -1119,8 +1123,11 @@
       <c r="N9" s="7">
         <v>0</v>
       </c>
-      <c r="P9" s="7">
-        <v>866.89</v>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="12">
+        <v>881.43</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1135,14 +1142,14 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="7">
+      <c r="F10" s="12">
         <v>833.33</v>
       </c>
       <c r="G10" s="10">
-        <v>4166.6899999999996</v>
-      </c>
-      <c r="H10" s="7">
-        <v>29.73</v>
+        <v>4185.83</v>
+      </c>
+      <c r="H10" s="12">
+        <v>42.64</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -1150,8 +1157,8 @@
       <c r="J10" s="7">
         <v>0</v>
       </c>
-      <c r="K10" s="7">
-        <v>863.06</v>
+      <c r="K10" s="12">
+        <v>875.97</v>
       </c>
       <c r="L10" s="7">
         <v>0</v>
@@ -1162,8 +1169,11 @@
       <c r="N10" s="7">
         <v>0</v>
       </c>
-      <c r="P10" s="7">
-        <v>863.06</v>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="12">
+        <v>875.97</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1178,14 +1188,14 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="7">
+      <c r="F11" s="12">
         <v>833.33</v>
       </c>
       <c r="G11" s="10">
-        <v>3333.36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>24.77</v>
+        <v>3348.8</v>
+      </c>
+      <c r="H11" s="12">
+        <v>35.549999999999997</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
@@ -1193,8 +1203,8 @@
       <c r="J11" s="7">
         <v>0</v>
       </c>
-      <c r="K11" s="7">
-        <v>858.1</v>
+      <c r="K11" s="12">
+        <v>868.88</v>
       </c>
       <c r="L11" s="7">
         <v>0</v>
@@ -1205,8 +1215,11 @@
       <c r="N11" s="7">
         <v>0</v>
       </c>
-      <c r="P11" s="7">
-        <v>858.1</v>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="12">
+        <v>868.88</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1221,14 +1234,14 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7">
+      <c r="F12" s="12">
         <v>833.33</v>
       </c>
       <c r="G12" s="10">
-        <v>2500.0300000000002</v>
-      </c>
-      <c r="H12" s="7">
-        <v>19.18</v>
+        <v>2508.56</v>
+      </c>
+      <c r="H12" s="12">
+        <v>27.52</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
@@ -1236,8 +1249,8 @@
       <c r="J12" s="7">
         <v>0</v>
       </c>
-      <c r="K12" s="7">
-        <v>852.51</v>
+      <c r="K12" s="12">
+        <v>860.86</v>
       </c>
       <c r="L12" s="7">
         <v>0</v>
@@ -1248,8 +1261,11 @@
       <c r="N12" s="7">
         <v>0</v>
       </c>
-      <c r="P12" s="7">
-        <v>852.51</v>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12">
+        <v>860.86</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1264,14 +1280,14 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="7">
+      <c r="F13" s="12">
         <v>833.33</v>
       </c>
       <c r="G13" s="10">
-        <v>1666.7</v>
-      </c>
-      <c r="H13" s="7">
-        <v>14.86</v>
+        <v>1665.83</v>
+      </c>
+      <c r="H13" s="12">
+        <v>21.31</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
@@ -1279,8 +1295,8 @@
       <c r="J13" s="7">
         <v>0</v>
       </c>
-      <c r="K13" s="7">
-        <v>848.19</v>
+      <c r="K13" s="12">
+        <v>854.64</v>
       </c>
       <c r="L13" s="7">
         <v>0</v>
@@ -1291,8 +1307,11 @@
       <c r="N13" s="7">
         <v>0</v>
       </c>
-      <c r="P13" s="7">
-        <v>848.19</v>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12">
+        <v>854.64</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1307,14 +1326,14 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="7">
+      <c r="F14" s="12">
         <v>833.33</v>
       </c>
       <c r="G14" s="7">
-        <v>833.37</v>
-      </c>
-      <c r="H14" s="7">
-        <v>9.59</v>
+        <v>820.06</v>
+      </c>
+      <c r="H14" s="12">
+        <v>13.69</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
@@ -1322,8 +1341,8 @@
       <c r="J14" s="7">
         <v>0</v>
       </c>
-      <c r="K14" s="7">
-        <v>842.92</v>
+      <c r="K14" s="12">
+        <v>847.03</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
@@ -1334,8 +1353,11 @@
       <c r="N14" s="7">
         <v>0</v>
       </c>
-      <c r="P14" s="7">
-        <v>842.92</v>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="12">
+        <v>847.03</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1350,14 +1372,14 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7">
-        <v>833.37</v>
+      <c r="F15" s="12">
+        <v>820.06</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
       </c>
-      <c r="H15" s="7">
-        <v>4.95</v>
+      <c r="H15" s="12">
+        <v>6.96</v>
       </c>
       <c r="I15" s="7">
         <v>0</v>
@@ -1365,8 +1387,8 @@
       <c r="J15" s="7">
         <v>0</v>
       </c>
-      <c r="K15" s="7">
-        <v>838.32</v>
+      <c r="K15" s="12">
+        <v>827.02</v>
       </c>
       <c r="L15" s="7">
         <v>0</v>
@@ -1377,8 +1399,11 @@
       <c r="N15" s="7">
         <v>0</v>
       </c>
-      <c r="P15" s="7">
-        <v>838.32</v>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="12">
+        <v>827.02</v>
       </c>
     </row>
   </sheetData>
@@ -1391,13 +1416,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="A1:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
@@ -1444,7 +1469,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1473,29 +1498,29 @@
       <c r="J2" s="9">
         <v>10000</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="8">
-        <v>42036</v>
+        <v>42019</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" s="7">
-        <v>850.32</v>
-      </c>
-      <c r="F3" s="7">
+        <v>850.31963470000005</v>
+      </c>
+      <c r="F3" s="12">
         <v>833.33</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="12">
         <v>16.989999999999998</v>
       </c>
       <c r="H3" s="7">
@@ -1507,12 +1532,12 @@
       <c r="J3" s="7">
         <v>0</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>
@@ -1543,70 +1568,6 @@
       </c>
       <c r="K4"/>
       <c r="L4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>42186</v>
-      </c>
-      <c r="B3" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>42156</v>
-      </c>
-      <c r="B4" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>42125</v>
-      </c>
-      <c r="B5" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>42096</v>
-      </c>
-      <c r="B6" s="7">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/2413-MS-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-BLR-OnTime-CASH-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/2413-MS-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-BLR-OnTime-CASH-Newcreateloan2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -224,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -247,9 +247,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -600,7 +597,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A7" sqref="A7:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,27 +635,27 @@
       <c r="A2" s="9">
         <v>10000</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="7">
         <v>833.33</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
         <v>9166.67</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="7">
         <v>833.33</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>412.65</v>
-      </c>
-      <c r="B3" s="12">
-        <v>16.989999999999998</v>
+      <c r="A3" s="7">
+        <v>252.55</v>
+      </c>
+      <c r="B3" s="7">
+        <v>12.74</v>
       </c>
       <c r="C3" s="7">
         <v>0</v>
@@ -666,11 +663,11 @@
       <c r="D3" s="7">
         <v>0</v>
       </c>
-      <c r="E3" s="12">
-        <v>395.66</v>
-      </c>
-      <c r="F3" s="12">
-        <v>19.170000000000002</v>
+      <c r="E3" s="7">
+        <v>239.81</v>
+      </c>
+      <c r="F3" s="7">
+        <v>12.79</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -722,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="A1:P15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,17 +832,17 @@
         <v>42036</v>
       </c>
       <c r="D3" s="8">
-        <v>42019</v>
+        <v>42036</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="12">
+      <c r="F3" s="7">
         <v>833.33</v>
       </c>
       <c r="G3" s="10">
-        <v>4165.74</v>
-      </c>
-      <c r="H3" s="12">
-        <v>16.989999999999998</v>
+        <v>4166.67</v>
+      </c>
+      <c r="H3" s="7">
+        <v>12.74</v>
       </c>
       <c r="I3" s="7">
         <v>0</v>
@@ -853,14 +850,14 @@
       <c r="J3" s="7">
         <v>0</v>
       </c>
-      <c r="K3" s="12">
-        <v>850.32</v>
-      </c>
-      <c r="L3" s="12">
-        <v>850.32</v>
-      </c>
-      <c r="M3" s="12">
-        <v>850.32</v>
+      <c r="K3" s="7">
+        <v>846.07</v>
+      </c>
+      <c r="L3" s="7">
+        <v>846.07</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
       </c>
       <c r="N3" s="7">
         <v>0</v>
@@ -889,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="12">
+      <c r="K4" s="7">
         <v>0</v>
       </c>
       <c r="L4" s="7">
@@ -912,14 +909,14 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="12">
+      <c r="F5" s="7">
         <v>833.33</v>
       </c>
       <c r="G5" s="10">
-        <v>8327.27</v>
-      </c>
-      <c r="H5" s="12">
-        <v>19.170000000000002</v>
+        <v>8333.34</v>
+      </c>
+      <c r="H5" s="7">
+        <v>12.79</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -927,8 +924,8 @@
       <c r="J5" s="7">
         <v>0</v>
       </c>
-      <c r="K5" s="12">
-        <v>852.51</v>
+      <c r="K5" s="7">
+        <v>846.12</v>
       </c>
       <c r="L5" s="7">
         <v>0</v>
@@ -942,8 +939,8 @@
       <c r="O5" s="7">
         <v>0</v>
       </c>
-      <c r="P5" s="12">
-        <v>852.51</v>
+      <c r="P5" s="7">
+        <v>846.12</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -958,14 +955,14 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="12">
+      <c r="F6" s="7">
         <v>833.33</v>
       </c>
       <c r="G6" s="10">
-        <v>7507.16</v>
-      </c>
-      <c r="H6" s="12">
-        <v>62.28</v>
+        <v>7500.01</v>
+      </c>
+      <c r="H6" s="7">
+        <v>38.93</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -973,8 +970,8 @@
       <c r="J6" s="7">
         <v>0</v>
       </c>
-      <c r="K6" s="12">
-        <v>895.61</v>
+      <c r="K6" s="7">
+        <v>872.26</v>
       </c>
       <c r="L6" s="7">
         <v>0</v>
@@ -988,8 +985,8 @@
       <c r="O6" s="7">
         <v>0</v>
       </c>
-      <c r="P6" s="12">
-        <v>895.61</v>
+      <c r="P6" s="7">
+        <v>872.26</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1004,14 +1001,14 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="12">
+      <c r="F7" s="7">
         <v>833.33</v>
       </c>
       <c r="G7" s="10">
-        <v>6680.59</v>
-      </c>
-      <c r="H7" s="12">
-        <v>61.7</v>
+        <v>6666.68</v>
+      </c>
+      <c r="H7" s="7">
+        <v>36.99</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1019,8 +1016,8 @@
       <c r="J7" s="7">
         <v>0</v>
       </c>
-      <c r="K7" s="12">
-        <v>895.04</v>
+      <c r="K7" s="7">
+        <v>870.32</v>
       </c>
       <c r="L7" s="7">
         <v>0</v>
@@ -1034,8 +1031,8 @@
       <c r="O7" s="7">
         <v>0</v>
       </c>
-      <c r="P7" s="12">
-        <v>895.04</v>
+      <c r="P7" s="7">
+        <v>870.32</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1050,14 +1047,14 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="12">
+      <c r="F8" s="7">
         <v>833.33</v>
       </c>
       <c r="G8" s="10">
-        <v>5852.04</v>
-      </c>
-      <c r="H8" s="12">
-        <v>56.74</v>
+        <v>5833.35</v>
+      </c>
+      <c r="H8" s="7">
+        <v>33.97</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1065,8 +1062,8 @@
       <c r="J8" s="7">
         <v>0</v>
       </c>
-      <c r="K8" s="12">
-        <v>890.07</v>
+      <c r="K8" s="7">
+        <v>867.3</v>
       </c>
       <c r="L8" s="7">
         <v>0</v>
@@ -1080,8 +1077,8 @@
       <c r="O8" s="7">
         <v>0</v>
       </c>
-      <c r="P8" s="12">
-        <v>890.07</v>
+      <c r="P8" s="7">
+        <v>867.3</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1096,14 +1093,14 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="12">
+      <c r="F9" s="7">
         <v>833.33</v>
       </c>
       <c r="G9" s="10">
-        <v>5020.03</v>
-      </c>
-      <c r="H9" s="12">
-        <v>48.1</v>
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="H9" s="7">
+        <v>28.77</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -1111,8 +1108,8 @@
       <c r="J9" s="7">
         <v>0</v>
       </c>
-      <c r="K9" s="12">
-        <v>881.43</v>
+      <c r="K9" s="7">
+        <v>862.1</v>
       </c>
       <c r="L9" s="7">
         <v>0</v>
@@ -1126,8 +1123,8 @@
       <c r="O9" s="7">
         <v>0</v>
       </c>
-      <c r="P9" s="12">
-        <v>881.43</v>
+      <c r="P9" s="7">
+        <v>862.1</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1142,14 +1139,14 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="12">
+      <c r="F10" s="7">
         <v>833.33</v>
       </c>
       <c r="G10" s="10">
-        <v>4185.83</v>
-      </c>
-      <c r="H10" s="12">
-        <v>42.64</v>
+        <v>4166.6899999999996</v>
+      </c>
+      <c r="H10" s="7">
+        <v>25.48</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -1157,8 +1154,8 @@
       <c r="J10" s="7">
         <v>0</v>
       </c>
-      <c r="K10" s="12">
-        <v>875.97</v>
+      <c r="K10" s="7">
+        <v>858.81</v>
       </c>
       <c r="L10" s="7">
         <v>0</v>
@@ -1172,8 +1169,8 @@
       <c r="O10" s="7">
         <v>0</v>
       </c>
-      <c r="P10" s="12">
-        <v>875.97</v>
+      <c r="P10" s="7">
+        <v>858.81</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1188,14 +1185,14 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="12">
+      <c r="F11" s="7">
         <v>833.33</v>
       </c>
       <c r="G11" s="10">
-        <v>3348.8</v>
-      </c>
-      <c r="H11" s="12">
-        <v>35.549999999999997</v>
+        <v>3333.36</v>
+      </c>
+      <c r="H11" s="7">
+        <v>21.23</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
@@ -1203,8 +1200,8 @@
       <c r="J11" s="7">
         <v>0</v>
       </c>
-      <c r="K11" s="12">
-        <v>868.88</v>
+      <c r="K11" s="7">
+        <v>854.56</v>
       </c>
       <c r="L11" s="7">
         <v>0</v>
@@ -1218,8 +1215,8 @@
       <c r="O11" s="7">
         <v>0</v>
       </c>
-      <c r="P11" s="12">
-        <v>868.88</v>
+      <c r="P11" s="7">
+        <v>854.56</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1234,14 +1231,14 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="12">
+      <c r="F12" s="7">
         <v>833.33</v>
       </c>
       <c r="G12" s="10">
-        <v>2508.56</v>
-      </c>
-      <c r="H12" s="12">
-        <v>27.52</v>
+        <v>2500.0300000000002</v>
+      </c>
+      <c r="H12" s="7">
+        <v>16.440000000000001</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
@@ -1249,8 +1246,8 @@
       <c r="J12" s="7">
         <v>0</v>
       </c>
-      <c r="K12" s="12">
-        <v>860.86</v>
+      <c r="K12" s="7">
+        <v>849.77</v>
       </c>
       <c r="L12" s="7">
         <v>0</v>
@@ -1264,8 +1261,8 @@
       <c r="O12" s="7">
         <v>0</v>
       </c>
-      <c r="P12" s="12">
-        <v>860.86</v>
+      <c r="P12" s="7">
+        <v>849.77</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1280,14 +1277,14 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="12">
+      <c r="F13" s="7">
         <v>833.33</v>
       </c>
       <c r="G13" s="10">
-        <v>1665.83</v>
-      </c>
-      <c r="H13" s="12">
-        <v>21.31</v>
+        <v>1666.7</v>
+      </c>
+      <c r="H13" s="7">
+        <v>12.74</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
@@ -1295,8 +1292,8 @@
       <c r="J13" s="7">
         <v>0</v>
       </c>
-      <c r="K13" s="12">
-        <v>854.64</v>
+      <c r="K13" s="7">
+        <v>846.07</v>
       </c>
       <c r="L13" s="7">
         <v>0</v>
@@ -1310,8 +1307,8 @@
       <c r="O13" s="7">
         <v>0</v>
       </c>
-      <c r="P13" s="12">
-        <v>854.64</v>
+      <c r="P13" s="7">
+        <v>846.07</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1326,14 +1323,14 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="12">
+      <c r="F14" s="7">
         <v>833.33</v>
       </c>
       <c r="G14" s="7">
-        <v>820.06</v>
-      </c>
-      <c r="H14" s="12">
-        <v>13.69</v>
+        <v>833.37</v>
+      </c>
+      <c r="H14" s="7">
+        <v>8.2200000000000006</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
@@ -1341,8 +1338,8 @@
       <c r="J14" s="7">
         <v>0</v>
       </c>
-      <c r="K14" s="12">
-        <v>847.03</v>
+      <c r="K14" s="7">
+        <v>841.55</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
@@ -1356,8 +1353,8 @@
       <c r="O14" s="7">
         <v>0</v>
       </c>
-      <c r="P14" s="12">
-        <v>847.03</v>
+      <c r="P14" s="7">
+        <v>841.55</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1372,14 +1369,14 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="12">
-        <v>820.06</v>
+      <c r="F15" s="7">
+        <v>833.37</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
       </c>
-      <c r="H15" s="12">
-        <v>6.96</v>
+      <c r="H15" s="7">
+        <v>4.25</v>
       </c>
       <c r="I15" s="7">
         <v>0</v>
@@ -1387,8 +1384,8 @@
       <c r="J15" s="7">
         <v>0</v>
       </c>
-      <c r="K15" s="12">
-        <v>827.02</v>
+      <c r="K15" s="7">
+        <v>837.62</v>
       </c>
       <c r="L15" s="7">
         <v>0</v>
@@ -1402,8 +1399,8 @@
       <c r="O15" s="7">
         <v>0</v>
       </c>
-      <c r="P15" s="12">
-        <v>827.02</v>
+      <c r="P15" s="7">
+        <v>837.62</v>
       </c>
     </row>
   </sheetData>
@@ -1416,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,7 +1466,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1495,33 +1492,33 @@
       <c r="I2" s="7">
         <v>0</v>
       </c>
-      <c r="J2" s="9">
-        <v>10000</v>
+      <c r="J2" s="10">
+        <v>9166.67</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="8">
-        <v>42019</v>
+        <v>42036</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="7">
-        <v>850.31963470000005</v>
-      </c>
-      <c r="F3" s="12">
+        <v>846.07</v>
+      </c>
+      <c r="F3" s="7">
         <v>833.33</v>
       </c>
-      <c r="G3" s="12">
-        <v>16.989999999999998</v>
+      <c r="G3" s="7">
+        <v>12.74</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>
@@ -1529,15 +1526,15 @@
       <c r="I3" s="7">
         <v>0</v>
       </c>
-      <c r="J3" s="7">
-        <v>0</v>
+      <c r="J3" s="10">
+        <v>4166.67</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>

--- a/Mifos Automation Excels/Client/2413-MS-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-BLR-OnTime-CASH-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/2413-MS-EPP-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-BLR-OnTime-CASH-Newcreateloan2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -124,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,6 +264,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -306,7 +314,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,9 +347,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,6 +399,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -717,10 +759,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,12 +780,13 @@
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.140625" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -783,17 +826,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -820,8 +864,9 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -859,17 +904,18 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
+      <c r="N3" s="7"/>
       <c r="O3" s="7">
         <v>0</v>
       </c>
       <c r="P3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8">
@@ -896,8 +942,9 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -933,17 +980,18 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7">
         <v>0</v>
       </c>
       <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
         <v>846.12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -979,17 +1027,18 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7">
         <v>0</v>
       </c>
       <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
         <v>872.26</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1025,17 +1074,18 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7">
         <v>0</v>
       </c>
       <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
         <v>870.32</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1071,17 +1121,18 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7">
         <v>0</v>
       </c>
       <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
         <v>867.3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1117,17 +1168,18 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7">
         <v>0</v>
       </c>
       <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
         <v>862.1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1163,17 +1215,18 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7">
         <v>0</v>
       </c>
       <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
         <v>858.81</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -1209,17 +1262,18 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7">
         <v>0</v>
       </c>
       <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
         <v>854.56</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -1255,17 +1309,18 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7">
         <v>0</v>
       </c>
       <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
         <v>849.77</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -1301,17 +1356,18 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7">
         <v>0</v>
       </c>
       <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
         <v>846.07</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -1347,17 +1403,18 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7">
         <v>0</v>
       </c>
       <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
         <v>841.55</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -1393,13 +1450,14 @@
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7">
         <v>0</v>
       </c>
       <c r="P15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
         <v>837.62</v>
       </c>
     </row>
@@ -1413,7 +1471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
